--- a/result/results of Wilcoxon Test.xlsx
+++ b/result/results of Wilcoxon Test.xlsx
@@ -14,17 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
   <si>
     <t>ST</t>
-  </si>
-  <si>
-    <t>FSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALSA-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Trace</t>
@@ -51,64 +43,43 @@
     <t>Lightning7</t>
   </si>
   <si>
-    <t>Coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Beef</t>
   </si>
   <si>
     <t>DiatomSizeReduction</t>
   </si>
   <si>
-    <t>Symbols</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Σ+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Σ-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LS</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gRSF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FS</t>
   </si>
   <si>
+    <t>FSS</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
     <t>Symbols</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALSA-R</t>
   </si>
   <si>
     <t>Σ+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Σ-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>gRSF</t>
   </si>
   <si>
     <t>RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:AE103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1"/>
       <c r="X1" s="2"/>
@@ -573,7 +544,7 @@
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -582,49 +553,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D13" si="0">B2-C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E13" si="1">ABS(B2-C2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>0.99970000000000003</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
       <c r="M2" s="6">
-        <f t="shared" ref="M2:M13" si="2">K2-L2</f>
-        <v>-2.9999999999996696E-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N13" si="3">ABS(K2-L2)</f>
-        <v>2.9999999999996696E-4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.89696485599999998</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3961659041539241E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3961659041539241E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -632,21 +597,19 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="10">
-        <v>0.95120000000000005</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="L3" s="10">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="M3" s="11">
-        <f t="shared" si="2"/>
-        <v>1.1452672497571093E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1452672497571093E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O3" s="12">
         <v>1</v>
@@ -658,21 +621,19 @@
     </row>
     <row r="4" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="14">
-        <v>0.78260869600000005</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C4" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D4" s="15">
-        <f t="shared" si="0"/>
-        <v>-2.5575444092069688E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5575444092069688E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -680,21 +641,19 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="J4" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="14">
-        <v>0.6855</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="L4" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="M4" s="15">
-        <f t="shared" si="2"/>
-        <v>-2.6342105263157056E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" si="3"/>
-        <v>2.6342105263157056E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O4" s="16">
         <v>2</v>
@@ -706,21 +665,19 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.94752186599999999</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>7.7745384975710374E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.7745384975710374E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -728,21 +685,19 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="10">
-        <v>0.67110000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="L5" s="10">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="2"/>
-        <v>2.7870833333334066E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="3"/>
-        <v>2.7870833333334066E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="O5" s="12">
         <v>3.5</v>
@@ -754,21 +709,19 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.99736611100000006</v>
+        <v>0.997</v>
       </c>
       <c r="C6" s="1">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>1.1413521008780014E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1413521008780014E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -776,21 +729,19 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="14">
-        <v>0.95779999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="L6" s="14">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M6" s="15">
-        <f t="shared" si="2"/>
-        <v>-2.8152589991220056E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="3"/>
-        <v>2.8152589991220056E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="O6" s="16">
         <v>3.5</v>
@@ -802,21 +753,19 @@
     </row>
     <row r="7" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="14">
-        <v>0.72602739699999996</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C7" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="D7" s="15">
-        <f t="shared" si="0"/>
-        <v>-1.3698630397260048E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="1"/>
-        <v>1.3698630397260048E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F7" s="13">
         <v>5</v>
@@ -824,21 +773,19 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="J7" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="14">
-        <v>0.85409999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="L7" s="14">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M7" s="15">
-        <f t="shared" si="2"/>
-        <v>-4.0468690095846083E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="3"/>
-        <v>4.0468690095846083E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O7" s="16">
         <v>5</v>
@@ -850,21 +797,19 @@
     </row>
     <row r="8" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14">
-        <v>0.96428571399999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" si="0"/>
-        <v>-3.571428600000004E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="1"/>
-        <v>3.571428600000004E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F8" s="13">
         <v>6</v>
@@ -872,21 +817,19 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="J8" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="14">
-        <v>0.95950000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="2"/>
-        <v>-4.049999999999998E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="3"/>
-        <v>4.049999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="O8" s="16">
         <v>6</v>
@@ -898,21 +841,19 @@
     </row>
     <row r="9" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14">
-        <v>0.66973684200000005</v>
+        <v>0.67</v>
       </c>
       <c r="C9" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>-4.2105263263157E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="1"/>
-        <v>4.2105263263157E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F9" s="13">
         <v>7</v>
@@ -920,21 +861,19 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="J9" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K9" s="14">
         <v>0.69499999999999995</v>
       </c>
       <c r="L9" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="2"/>
-        <v>-4.472602739726006E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="3"/>
-        <v>4.472602739726006E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O9" s="16">
         <v>7</v>
@@ -946,21 +885,19 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>0.69973958300000005</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="1">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>5.651041633333409E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>5.651041633333409E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -968,21 +905,19 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" s="14">
-        <v>0.72570000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="L10" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="2"/>
-        <v>-5.9466240409207005E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="3"/>
-        <v>5.9466240409207005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="O10" s="16">
         <v>8</v>
@@ -994,21 +929,19 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.9</v>
       </c>
       <c r="C11" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666985E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666985E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1016,21 +949,19 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="J11" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K11" s="14">
-        <v>0.76919999999999999</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="L11" s="14">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="2"/>
-        <v>-8.7009150326797013E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="3"/>
-        <v>8.7009150326797013E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="O11" s="16">
         <v>9</v>
@@ -1042,21 +973,19 @@
     </row>
     <row r="12" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="14">
-        <v>0.88241206000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C12" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" si="0"/>
-        <v>-6.8341708844220972E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="1"/>
-        <v>6.8341708844220972E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F12" s="13">
         <v>10</v>
@@ -1064,21 +993,19 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="14">
-        <v>0.86350000000000005</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L12" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="2"/>
-        <v>-8.725376884422098E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="3"/>
-        <v>8.725376884422098E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="O12" s="16">
         <v>10</v>
@@ -1090,21 +1017,19 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92483660099999998</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>6.8627450673202972E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8627450673202972E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -1112,21 +1037,19 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K13" s="14">
-        <v>0.6089</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="L13" s="14">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
-        <v>-0.22443333333333304</v>
+        <v>-0.224</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="3"/>
-        <v>0.22443333333333304</v>
+        <v>0.224</v>
       </c>
       <c r="O13" s="16">
         <v>11</v>
@@ -1151,13 +1074,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="12">
         <v>36</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15" s="12">
         <v>4.5</v>
@@ -1165,13 +1088,13 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12">
         <v>30</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" s="12">
         <v>61.5</v>
@@ -1179,35 +1102,33 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="K19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="14">
         <v>0.92</v>
       </c>
       <c r="L20" s="14">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" ref="M20:M31" si="4">K20-L20</f>
-        <v>-1.9747327502428913E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" ref="N20:N31" si="5">ABS(K20-L20)</f>
-        <v>1.9747327502428913E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O20" s="16">
         <v>1</v>
@@ -1215,7 +1136,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -1224,16 +1145,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:D32" si="6">B21-C21</f>
         <v>0</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" ref="E21:E32" si="7">ABS(B21-C21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="J21" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="14">
         <v>0.96499999999999997</v>
@@ -1242,12 +1161,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="4"/>
-        <v>-3.5000000000000031E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="5"/>
-        <v>3.5000000000000031E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O21" s="16">
         <v>2</v>
@@ -1255,7 +1172,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -1264,11 +1181,9 @@
         <v>1</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
@@ -1276,21 +1191,19 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="14">
         <v>0.67600000000000005</v>
       </c>
       <c r="L22" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="4"/>
-        <v>-3.5842105263157009E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="5"/>
-        <v>3.5842105263157009E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="O22" s="16">
         <v>3</v>
@@ -1302,21 +1215,19 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
-        <v>0.99648814749780501</v>
+        <v>0.996</v>
       </c>
       <c r="C23" s="1">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="6"/>
-        <v>1.0535557506584969E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="7"/>
-        <v>1.0535557506584969E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F23">
         <v>1.5</v>
@@ -1325,7 +1236,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" s="14">
         <v>0.96099999999999997</v>
@@ -1334,12 +1245,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="4"/>
-        <v>-3.9000000000000035E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="5"/>
-        <v>3.9000000000000035E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O23" s="16">
         <v>4</v>
@@ -1347,21 +1256,19 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="14">
-        <v>0.88338658146964799</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C24" s="14">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D24" s="15">
-        <f t="shared" si="6"/>
-        <v>-1.1182108626198062E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1182108626198062E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F24" s="13">
         <v>1.5</v>
@@ -1370,21 +1277,19 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K24" s="10">
         <v>0.89600000000000002</v>
       </c>
       <c r="L24" s="10">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="4"/>
-        <v>3.979084967320301E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="5"/>
-        <v>3.979084967320301E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O24" s="12">
         <v>5</v>
@@ -1392,21 +1297,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="14">
-        <v>0.93165829145728596</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C25" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" si="6"/>
-        <v>-1.9095477386935067E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9095477386935067E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F25" s="13">
         <v>3</v>
@@ -1415,21 +1318,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="14">
         <v>0.86499999999999999</v>
       </c>
       <c r="L25" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="4"/>
-        <v>-8.5753768844221034E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="5"/>
-        <v>8.5753768844221034E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O25" s="16">
         <v>6</v>
@@ -1443,21 +1344,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.96015549076773499</v>
+        <v>0.96</v>
       </c>
       <c r="C26" s="1">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="6"/>
-        <v>2.0408163265306034E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="7"/>
-        <v>2.0408163265306034E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1466,21 +1365,19 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K26" s="14">
         <v>0.65200000000000002</v>
       </c>
       <c r="L26" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="4"/>
-        <v>-8.7726027397259987E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="5"/>
-        <v>8.7726027397259987E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O26" s="16">
         <v>7</v>
@@ -1494,21 +1391,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>0.86666666666666603</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="6"/>
-        <v>3.3333333333332993E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="7"/>
-        <v>3.3333333333332993E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -1517,21 +1412,19 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27" s="14">
         <v>0.55300000000000005</v>
       </c>
       <c r="L27" s="14">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="4"/>
-        <v>-9.0229166666665916E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="5"/>
-        <v>9.0229166666665916E-2</v>
+        <v>0.09</v>
       </c>
       <c r="O27" s="16">
         <v>8</v>
@@ -1545,21 +1438,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="14">
-        <v>0.66447368421052599</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="C28" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" si="6"/>
-        <v>-4.736842105263106E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="7"/>
-        <v>4.736842105263106E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1568,21 +1459,19 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="14">
         <v>0.78300000000000003</v>
       </c>
       <c r="L28" s="14">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.11156869009584602</v>
+        <v>-0.112</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="5"/>
-        <v>0.11156869009584602</v>
+        <v>0.112</v>
       </c>
       <c r="O28" s="16">
         <v>9</v>
@@ -1596,21 +1485,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="14">
-        <v>0.59244791666666596</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C29" s="14">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="6"/>
-        <v>-5.078125E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="7"/>
-        <v>5.078125E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -1619,21 +1506,19 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K29" s="14">
         <v>0.86699999999999999</v>
       </c>
       <c r="L29" s="14">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.11895258999122005</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="5"/>
-        <v>0.11895258999122005</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="O29" s="16">
         <v>10</v>
@@ -1647,21 +1532,19 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>0.79452054794520499</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="C30" s="1">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="6"/>
-        <v>5.479452054794498E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="7"/>
-        <v>5.479452054794498E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1670,21 +1553,19 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K30" s="10">
-        <v>0.97499999999999998</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="L30" s="10">
-        <v>0.83333333333333304</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="4"/>
-        <v>0.14166666666666694</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="5"/>
-        <v>0.14166666666666694</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="O30" s="12">
         <v>11</v>
@@ -1698,21 +1579,19 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>0.98039215686274495</v>
+        <v>0.98</v>
       </c>
       <c r="C31" s="1">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.12418300653594794</v>
+        <v>0.124</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="7"/>
-        <v>0.12418300653594794</v>
+        <v>0.124</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -1721,21 +1600,19 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K31" s="14">
-        <v>0.58299999999999996</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="L31" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="4"/>
-        <v>-0.20216624040920705</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" si="5"/>
-        <v>0.20216624040920705</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="O31" s="16">
         <v>12</v>
@@ -1749,21 +1626,19 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="14">
-        <v>0.52173913043478204</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C32" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" si="6"/>
-        <v>-0.26342710997442498</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26342710997442498</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F32" s="13">
         <v>10</v>
@@ -1784,10 +1659,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="K33" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33" s="12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1798,7 +1673,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B34" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" s="12">
         <v>40.5</v>
@@ -1807,10 +1682,10 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="K34" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L34" s="12">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -1821,7 +1696,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="12">
         <v>14.5</v>
@@ -1846,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -1857,7 +1732,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -1866,39 +1741,35 @@
         <v>1</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:D49" si="8">B38-C38</f>
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ref="E38:E49" si="9">ABS(B38-C38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O38" s="16"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" s="10">
-        <v>0.94359999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C39" s="10">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="8"/>
-        <v>3.8526724975710414E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="9"/>
-        <v>3.8526724975710414E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -1907,7 +1778,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
@@ -1916,32 +1787,28 @@
         <v>1</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" ref="M39:M50" si="10">K39-L39</f>
         <v>0</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39:N50" si="11">ABS(K39-L39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" s="10">
-        <v>0.99119999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C40" s="10">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="8"/>
-        <v>5.2474100087799291E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="9"/>
-        <v>5.2474100087799291E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F40" s="9">
         <v>2</v>
@@ -1950,21 +1817,19 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K40" s="10">
-        <v>0.86601300000000003</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="L40" s="10">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="10"/>
-        <v>9.8038496732030245E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="11"/>
-        <v>9.8038496732030245E-3</v>
+        <v>0.01</v>
       </c>
       <c r="O40" s="12">
         <v>1</v>
@@ -1972,21 +1837,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="14">
         <v>0.72599999999999998</v>
       </c>
       <c r="C41" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3726027397260032E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E41" s="15">
-        <f t="shared" si="9"/>
-        <v>1.3726027397260032E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F41" s="13">
         <v>3</v>
@@ -1995,21 +1858,19 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K41" s="14">
-        <v>0.93366800000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="L41" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="10"/>
-        <v>-1.7085768844220972E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="11"/>
-        <v>1.7085768844220972E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="O41" s="16">
         <v>2</v>
@@ -2017,41 +1878,37 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" s="14">
-        <v>0.69740000000000002</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="C42" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.4442105263157035E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" si="9"/>
-        <v>1.4442105263157035E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F42" s="13">
         <v>4</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="14">
-        <v>0.91739599999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="L42" s="14">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" si="10"/>
-        <v>-2.2351327502428964E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="N42" s="15">
-        <f t="shared" si="11"/>
-        <v>2.2351327502428964E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O42" s="16">
         <v>3</v>
@@ -2059,21 +1916,19 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="10">
-        <v>0.65780000000000005</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C43" s="10">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="8"/>
-        <v>1.4570833333334088E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E43" s="11">
-        <f t="shared" si="9"/>
-        <v>1.4570833333334088E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -2082,21 +1937,19 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K43" s="14">
-        <v>0.92449499999999996</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="L43" s="14">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" si="10"/>
-        <v>-6.1457589991220085E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" si="11"/>
-        <v>6.1457589991220085E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="O43" s="16">
         <v>4</v>
@@ -2104,21 +1957,19 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B44" s="14">
-        <v>0.96430000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C44" s="14">
         <v>1</v>
       </c>
       <c r="D44" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.5699999999999954E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" si="9"/>
-        <v>3.5699999999999954E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F44" s="13">
         <v>6</v>
@@ -2127,21 +1978,19 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K44" s="14">
-        <v>0.92857100000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="L44" s="14">
         <v>1</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="10"/>
-        <v>-7.1428999999999965E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="11"/>
-        <v>7.1428999999999965E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="O44" s="16">
         <v>5</v>
@@ -2149,21 +1998,19 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="14">
-        <v>0.73150000000000004</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C45" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D45" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.3666240409206978E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="9"/>
-        <v>5.3666240409206978E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F45" s="13">
         <v>7</v>
@@ -2172,21 +2019,19 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K45" s="14">
-        <v>0.62368400000000002</v>
+        <v>0.624</v>
       </c>
       <c r="L45" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="M45" s="15">
-        <f t="shared" si="10"/>
-        <v>-8.8158105263157038E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="11"/>
-        <v>8.8158105263157038E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O45" s="16">
         <v>6</v>
@@ -2194,21 +2039,19 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="10">
-        <v>0.95209999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C46" s="10">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="8"/>
-        <v>5.7531309904153893E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="9"/>
-        <v>5.7531309904153893E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F46" s="9">
         <v>8</v>
@@ -2217,21 +2060,19 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K46" s="14">
-        <v>0.64383599999999996</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="L46" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" si="10"/>
-        <v>-9.5890027397260047E-2</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="11"/>
-        <v>9.5890027397260047E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="O46" s="16">
         <v>7</v>
@@ -2239,21 +2080,19 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" s="14">
-        <v>0.77880000000000005</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="C47" s="14">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D47" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.7409150326796961E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="9"/>
-        <v>7.7409150326796961E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F47" s="13">
         <v>9</v>
@@ -2262,21 +2101,19 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K47" s="14">
-        <v>0.54635400000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="L47" s="14">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="M47" s="15">
-        <f t="shared" si="10"/>
-        <v>-9.6875166666665957E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="11"/>
-        <v>9.6875166666665957E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="O47" s="16">
         <v>8</v>
@@ -2284,21 +2121,19 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="14">
-        <v>0.75470000000000004</v>
+        <v>0.755</v>
       </c>
       <c r="C48" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D48" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.19605376884422099</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="9"/>
-        <v>0.19605376884422099</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="F48" s="13">
         <v>10</v>
@@ -2307,21 +2142,19 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48" s="14">
-        <v>0.77715699999999999</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="L48" s="14">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M48" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.11741169009584607</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="11"/>
-        <v>0.11741169009584607</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="O48" s="16">
         <v>9</v>
@@ -2329,21 +2162,19 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" s="14">
-        <v>0.63329999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C49" s="14">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D49" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.20003333333333306</v>
+        <v>-0.2</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="9"/>
-        <v>0.20003333333333306</v>
+        <v>0.2</v>
       </c>
       <c r="F49" s="13">
         <v>11</v>
@@ -2352,21 +2183,19 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K49" s="14">
-        <v>0.59335000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="L49" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M49" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.19181624040920697</v>
+        <v>-0.192</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="11"/>
-        <v>0.19181624040920697</v>
+        <v>0.192</v>
       </c>
       <c r="O49" s="16">
         <v>10</v>
@@ -2378,21 +2207,19 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K50" s="14">
-        <v>0.56666700000000003</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="L50" s="14">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="M50" s="15">
-        <f t="shared" si="10"/>
-        <v>-0.26666633333333301</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="11"/>
-        <v>0.26666633333333301</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="O50" s="16">
         <v>11</v>
@@ -2400,7 +2227,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B51" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C51" s="12">
         <v>16</v>
@@ -2412,7 +2239,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C52" s="12">
         <v>50</v>
@@ -2421,7 +2248,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="K52" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L52" s="12">
         <v>2</v>
@@ -2437,7 +2264,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="K53" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L53" s="12">
         <v>64</v>
@@ -2458,30 +2285,28 @@
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O55" s="16"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J56" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56" s="14">
         <v>0.92400000000000004</v>
       </c>
       <c r="L56" s="14">
-        <v>0.93974732750242895</v>
+        <v>0.94</v>
       </c>
       <c r="M56" s="15">
-        <f t="shared" ref="M56:M67" si="12">K56-L56</f>
-        <v>-1.5747327502428909E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" ref="N56:N67" si="13">ABS(K56-L56)</f>
-        <v>1.5747327502428909E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O56" s="16">
         <v>1</v>
@@ -2489,7 +2314,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J57" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" s="14">
         <v>0.93400000000000005</v>
@@ -2498,12 +2323,10 @@
         <v>1</v>
       </c>
       <c r="M57" s="15">
-        <f t="shared" si="12"/>
-        <v>-6.5999999999999948E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="13"/>
-        <v>6.5999999999999948E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O57" s="16">
         <v>2</v>
@@ -2511,21 +2334,19 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J58" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K58" s="14">
         <v>0.57199999999999995</v>
       </c>
       <c r="L58" s="14">
-        <v>0.64322916666666596</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="M58" s="15">
-        <f t="shared" si="12"/>
-        <v>-7.1229166666666011E-2</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N58" s="15">
-        <f t="shared" si="13"/>
-        <v>7.1229166666666011E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="O58" s="16">
         <v>3</v>
@@ -2533,21 +2354,19 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J59" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K59" s="14">
         <v>0.91400000000000003</v>
       </c>
       <c r="L59" s="14">
-        <v>0.98595258999122004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M59" s="15">
-        <f t="shared" si="12"/>
-        <v>-7.1952589991220006E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="13"/>
-        <v>7.1952589991220006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="O59" s="16">
         <v>4</v>
@@ -2555,21 +2374,19 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J60" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" s="14">
         <v>0.81499999999999995</v>
       </c>
       <c r="L60" s="14">
-        <v>0.89456869009584605</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M60" s="15">
-        <f t="shared" si="12"/>
-        <v>-7.9568690095846106E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="13"/>
-        <v>7.9568690095846106E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O60" s="16">
         <v>5</v>
@@ -2577,21 +2394,19 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J61" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K61" s="14">
         <v>0.77400000000000002</v>
       </c>
       <c r="L61" s="14">
-        <v>0.85620915032679701</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M61" s="15">
-        <f t="shared" si="12"/>
-        <v>-8.2209150326796987E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="13"/>
-        <v>8.2209150326796987E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="O61" s="16">
         <v>6</v>
@@ -2599,21 +2414,19 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J62" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K62" s="14">
         <v>0.63500000000000001</v>
       </c>
       <c r="L62" s="14">
-        <v>0.73972602739726001</v>
+        <v>0.74</v>
       </c>
       <c r="M62" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.10472602739726</v>
+        <v>-0.105</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="13"/>
-        <v>0.10472602739726</v>
+        <v>0.105</v>
       </c>
       <c r="O62" s="16">
         <v>7</v>
@@ -2621,21 +2434,19 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J63" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K63" s="14">
         <v>0.79500000000000004</v>
       </c>
       <c r="L63" s="14">
-        <v>0.95075376884422103</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="M63" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.15575376884422099</v>
+        <v>-0.156</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="13"/>
-        <v>0.15575376884422099</v>
+        <v>0.156</v>
       </c>
       <c r="O63" s="16">
         <v>8</v>
@@ -2643,21 +2454,19 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="J64" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K64" s="14">
         <v>0.52900000000000003</v>
       </c>
       <c r="L64" s="14">
-        <v>0.71184210526315705</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="M64" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.18284210526315703</v>
+        <v>-0.183</v>
       </c>
       <c r="N64" s="14">
-        <f t="shared" si="13"/>
-        <v>0.18284210526315703</v>
+        <v>0.183</v>
       </c>
       <c r="O64" s="16">
         <v>9</v>
@@ -2665,7 +2474,7 @@
     </row>
     <row r="65" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J65" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K65" s="14">
         <v>0.76900000000000002</v>
@@ -2674,12 +2483,10 @@
         <v>1</v>
       </c>
       <c r="M65" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.23099999999999998</v>
+        <v>-0.23100000000000001</v>
       </c>
       <c r="N65" s="15">
-        <f t="shared" si="13"/>
-        <v>0.23099999999999998</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="O65" s="16">
         <v>10</v>
@@ -2687,21 +2494,19 @@
     </row>
     <row r="66" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J66" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K66" s="14">
         <v>0.51600000000000001</v>
       </c>
       <c r="L66" s="14">
-        <v>0.78516624040920702</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="12"/>
-        <v>-0.269166240409207</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="N66" s="15">
-        <f t="shared" si="13"/>
-        <v>0.269166240409207</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="O66" s="16">
         <v>11</v>
@@ -2709,21 +2514,19 @@
     </row>
     <row r="67" spans="7:15" x14ac:dyDescent="0.15">
       <c r="J67" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K67" s="14">
         <v>0.32400000000000001</v>
       </c>
       <c r="L67" s="14">
-        <v>0.83333333333333304</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="M67" s="11">
-        <f t="shared" si="12"/>
-        <v>-0.50933333333333297</v>
+        <v>-0.50900000000000001</v>
       </c>
       <c r="N67" s="15">
-        <f t="shared" si="13"/>
-        <v>0.50933333333333297</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="O67" s="16">
         <v>12</v>
@@ -2734,7 +2537,7 @@
     </row>
     <row r="69" spans="7:15" x14ac:dyDescent="0.15">
       <c r="K69" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L69" s="12">
         <v>0</v>
@@ -2742,7 +2545,7 @@
     </row>
     <row r="70" spans="7:15" x14ac:dyDescent="0.15">
       <c r="K70" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L70" s="12">
         <v>78</v>
